--- a/lib/uploads/2017_5_A_SA-1.xlsx
+++ b/lib/uploads/2017_5_A_SA-1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -61,16 +61,22 @@
     <t>CLASS 5 (2017)</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>E</t>
+    <t>^</t>
+  </si>
+  <si>
+    <t>Shreyansh Deb</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Prateek Gupta</t>
+  </si>
+  <si>
+    <t>Shubham Sharma</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,14 +143,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -302,21 +302,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -338,19 +323,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -378,67 +350,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -457,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,59 +400,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,19 +767,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
@@ -903,19 +790,19 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -926,19 +813,19 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -949,49 +836,49 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="6"/>
@@ -1004,31 +891,40 @@
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16">
-        <v>10</v>
-      </c>
-      <c r="E7" s="16">
-        <v>10</v>
-      </c>
-      <c r="F7" s="16">
-        <v>10</v>
-      </c>
-      <c r="G7" s="26">
-        <v>20</v>
-      </c>
-      <c r="H7" s="34">
-        <v>20</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
+      <c r="C7" s="15">
+        <v>80</v>
+      </c>
+      <c r="D7" s="15">
+        <v>80</v>
+      </c>
+      <c r="E7" s="15">
+        <v>80</v>
+      </c>
+      <c r="F7" s="15">
+        <v>80</v>
+      </c>
+      <c r="G7" s="15">
+        <v>80</v>
+      </c>
+      <c r="H7" s="15">
+        <v>80</v>
+      </c>
+      <c r="I7" s="24">
+        <f>C7+D7+E7+F7+G7+H7</f>
+        <v>480</v>
+      </c>
+      <c r="J7" s="24">
+        <v>150</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -1038,18 +934,41 @@
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="3"/>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4">
+        <v>55</v>
+      </c>
+      <c r="H8" s="3">
+        <v>50</v>
+      </c>
+      <c r="I8" s="24">
+        <f>SUMIF(C8:H8,"&lt;&gt;#AB")</f>
+        <v>280</v>
+      </c>
+      <c r="J8" s="21">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -1059,39 +978,40 @@
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="5">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="29">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="H9" s="3">
+        <v>50</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" ref="I9:I56" si="0">SUMIF(C9:H9,"&lt;&gt;#AB")</f>
+        <v>300</v>
       </c>
       <c r="J9" s="13">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1102,22 +1022,41 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5">
+        <v>55</v>
+      </c>
+      <c r="H10" s="3">
+        <v>50</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="J10" s="13">
+        <v>115</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1127,20 +1066,19 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J11" s="13"/>
       <c r="K11" s="2"/>
       <c r="L11" s="7"/>
@@ -1152,20 +1090,19 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J12" s="13"/>
       <c r="K12" s="2"/>
       <c r="L12" s="7"/>
@@ -1177,20 +1114,19 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J13" s="13"/>
       <c r="K13" s="2"/>
       <c r="L13" s="7"/>
@@ -1202,7 +1138,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1211,7 +1147,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J14" s="13"/>
       <c r="K14" s="2"/>
       <c r="L14" s="7"/>
@@ -1223,7 +1162,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1232,7 +1171,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J15" s="13"/>
       <c r="K15" s="2"/>
       <c r="L15" s="7"/>
@@ -1244,7 +1186,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1253,7 +1195,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="5"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="29"/>
+      <c r="I16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J16" s="13"/>
       <c r="K16" s="2"/>
       <c r="L16" s="7"/>
@@ -1265,7 +1210,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1274,7 +1219,10 @@
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J17" s="13"/>
       <c r="K17" s="2"/>
       <c r="L17" s="7"/>
@@ -1286,7 +1234,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1295,7 +1243,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="29"/>
+      <c r="I18" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J18" s="13"/>
       <c r="K18" s="2"/>
       <c r="L18" s="7"/>
@@ -1307,7 +1258,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1316,7 +1267,10 @@
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="29"/>
+      <c r="I19" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J19" s="13"/>
       <c r="K19" s="2"/>
       <c r="L19" s="7"/>
@@ -1328,7 +1282,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1337,7 +1291,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="29"/>
+      <c r="I20" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J20" s="13"/>
       <c r="K20" s="2"/>
       <c r="L20" s="7"/>
@@ -1349,7 +1306,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1358,7 +1315,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="5"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="29"/>
+      <c r="I21" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J21" s="13"/>
       <c r="K21" s="2"/>
       <c r="L21" s="7"/>
@@ -1370,7 +1330,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1379,7 +1339,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="5"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="29"/>
+      <c r="I22" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J22" s="13"/>
       <c r="K22" s="2"/>
       <c r="L22" s="7"/>
@@ -1391,7 +1354,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1400,7 +1363,10 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J23" s="13"/>
       <c r="K23" s="2"/>
       <c r="L23" s="7"/>
@@ -1412,7 +1378,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1421,7 +1387,10 @@
       <c r="F24" s="2"/>
       <c r="G24" s="5"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="29"/>
+      <c r="I24" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J24" s="13"/>
       <c r="K24" s="2"/>
       <c r="L24" s="1"/>
@@ -1433,7 +1402,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1442,11 +1411,14 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="31"/>
+      <c r="I25" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J25" s="14"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1455,11 +1427,14 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="31"/>
+      <c r="I26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J26" s="14"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1468,11 +1443,14 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="31"/>
+      <c r="I27" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J27" s="14"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1481,11 +1459,14 @@
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="31"/>
+      <c r="I28" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J28" s="14"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1494,11 +1475,14 @@
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="31"/>
+      <c r="I29" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J29" s="14"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1507,11 +1491,14 @@
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="31"/>
+      <c r="I30" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J30" s="14"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1520,11 +1507,14 @@
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="31"/>
+      <c r="I31" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J31" s="14"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1533,11 +1523,14 @@
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="31"/>
+      <c r="I32" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J32" s="14"/>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1546,11 +1539,14 @@
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="31"/>
+      <c r="I33" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J33" s="14"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1559,11 +1555,14 @@
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="31"/>
+      <c r="I34" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J34" s="14"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1572,11 +1571,14 @@
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="31"/>
+      <c r="I35" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J35" s="14"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1585,11 +1587,14 @@
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="31"/>
+      <c r="I36" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J36" s="14"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1598,11 +1603,14 @@
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="31"/>
+      <c r="I37" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J37" s="14"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1611,11 +1619,14 @@
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="31"/>
+      <c r="I38" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J38" s="14"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1624,11 +1635,14 @@
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="31"/>
+      <c r="I39" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J39" s="14"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1637,11 +1651,14 @@
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="31"/>
+      <c r="I40" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J40" s="14"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1650,11 +1667,14 @@
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="31"/>
+      <c r="I41" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J41" s="14"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1663,11 +1683,14 @@
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="31"/>
+      <c r="I42" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J42" s="14"/>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1676,11 +1699,14 @@
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="31"/>
+      <c r="I43" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J43" s="14"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1689,11 +1715,14 @@
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="31"/>
+      <c r="I44" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J44" s="14"/>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1702,11 +1731,14 @@
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
       <c r="H45" s="11"/>
-      <c r="I45" s="31"/>
+      <c r="I45" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J45" s="14"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1715,11 +1747,14 @@
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="31"/>
+      <c r="I46" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J46" s="14"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1728,11 +1763,14 @@
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="31"/>
+      <c r="I47" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J47" s="14"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1741,11 +1779,14 @@
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
       <c r="H48" s="11"/>
-      <c r="I48" s="31"/>
+      <c r="I48" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J48" s="14"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1754,11 +1795,14 @@
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="31"/>
+      <c r="I49" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J49" s="14"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1767,11 +1811,14 @@
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
       <c r="H50" s="11"/>
-      <c r="I50" s="31"/>
+      <c r="I50" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J50" s="14"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1780,11 +1827,14 @@
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
       <c r="H51" s="11"/>
-      <c r="I51" s="31"/>
+      <c r="I51" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J51" s="14"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1793,11 +1843,14 @@
       <c r="F52" s="11"/>
       <c r="G52" s="12"/>
       <c r="H52" s="11"/>
-      <c r="I52" s="31"/>
+      <c r="I52" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J52" s="14"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1806,11 +1859,14 @@
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
       <c r="H53" s="11"/>
-      <c r="I53" s="31"/>
+      <c r="I53" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J53" s="14"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1819,11 +1875,14 @@
       <c r="F54" s="11"/>
       <c r="G54" s="12"/>
       <c r="H54" s="11"/>
-      <c r="I54" s="31"/>
+      <c r="I54" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J54" s="14"/>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1832,7 +1891,10 @@
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
       <c r="H55" s="11"/>
-      <c r="I55" s="31"/>
+      <c r="I55" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J55" s="14"/>
       <c r="K55" s="11"/>
     </row>
@@ -1845,7 +1907,10 @@
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="32"/>
+      <c r="I56" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J56" s="14"/>
       <c r="K56" s="11"/>
     </row>
